--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-836295.1330099911</v>
+        <v>-838975.996073399</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>58.02993390906929</v>
+        <v>6.398476092604128</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>65.17721300966791</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>162.8488061766259</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>291.2468144055837</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>26.47503687369862</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>123.9552959085612</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0.8113584107186841</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.4560050455435</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>163.1366525438119</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>17.51729711849326</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>43.30112502764913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>33.0162797694411</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373728</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>249.6700188375714</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>53.11937003877687</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578129</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,49 +4331,49 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2379.02402606898</v>
+        <v>2555.876221235909</v>
       </c>
       <c r="U2" t="n">
-        <v>2379.02402606898</v>
+        <v>2302.295160500089</v>
       </c>
       <c r="V2" t="n">
-        <v>2379.02402606898</v>
+        <v>2302.295160500089</v>
       </c>
       <c r="W2" t="n">
-        <v>2379.02402606898</v>
+        <v>1949.526505229974</v>
       </c>
       <c r="X2" t="n">
-        <v>2379.02402606898</v>
+        <v>1576.060746968895</v>
       </c>
       <c r="Y2" t="n">
-        <v>2379.02402606898</v>
+        <v>1576.060746968895</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310612</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159573</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751773</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1615.796626183538</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>1446.860443255631</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>1296.743803843296</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>1148.830710260903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>2018.237670157308</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>1797.445091013778</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.368453810658</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C5" t="n">
-        <v>1119.405936870246</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>761.1402382634958</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>761.1402382634958</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>2410.897659438041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810658</v>
+        <v>2020.758327462229</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844853</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159569</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751768</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.8272960668249</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="C7" t="n">
-        <v>473.8272960668249</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.026596145333</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>922.6094261083724</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X7" t="n">
-        <v>694.6198752103551</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.8272960668249</v>
+        <v>698.9114490846931</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.810406950776</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>1009.847890010365</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D8" t="n">
-        <v>651.5821914036142</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>651.5821914036142</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>240.5962866140066</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926588</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.810406950776</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100995</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>937.3909343092793</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>768.4547513813724</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>618.3381119690366</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>323.5350708887331</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1533.862713590079</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687975</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.169680383432</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.485192177545</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990373</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424022</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300665</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6935,28 +6935,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.548983163957018e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9556134883076766</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883071934</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5911984019049</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.21972096579683</v>
       </c>
       <c r="T2" t="n">
-        <v>148.6282510711645</v>
+        <v>200.2597088876296</v>
       </c>
       <c r="U2" t="n">
-        <v>190.3512396460459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>55.73584717546893</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>65.3199726642718</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>36.51445555167274</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>93.31459260779229</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1196640.674192883</v>
+        <v>1196640.674192882</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1196640.674192883</v>
+        <v>1196640.674192882</v>
       </c>
     </row>
     <row r="11">
@@ -26317,10 +26317,10 @@
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26335,19 +26335,19 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="N2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448751</v>
+        <v>49700.31489448733</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,16 +26424,16 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707361</v>
@@ -26442,19 +26442,19 @@
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707354</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.28375980085</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980083</v>
       </c>
-      <c r="N4" t="n">
-        <v>14888.2837598008</v>
-      </c>
       <c r="O4" t="n">
-        <v>14888.28375980081</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1071212.515926498</v>
+        <v>-1071572.598942215</v>
       </c>
       <c r="C6" t="n">
-        <v>938.9874412082718</v>
+        <v>938.9874412083009</v>
       </c>
       <c r="D6" t="n">
-        <v>938.9874412082718</v>
+        <v>938.9874412082427</v>
       </c>
       <c r="E6" t="n">
-        <v>-393540.0810304089</v>
+        <v>-393574.8189558446</v>
       </c>
       <c r="F6" t="n">
-        <v>113945.3605941373</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="G6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="H6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="I6" t="n">
-        <v>113945.3605941373</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="J6" t="n">
-        <v>-53659.81721584524</v>
+        <v>-53694.55514128096</v>
       </c>
       <c r="K6" t="n">
-        <v>113945.3605941373</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="L6" t="n">
-        <v>88306.36910533</v>
+        <v>88306.36910533003</v>
       </c>
       <c r="M6" t="n">
-        <v>-24873.20662996484</v>
+        <v>-24873.20662996495</v>
       </c>
       <c r="N6" t="n">
-        <v>107734.0870989617</v>
+        <v>107734.0870989619</v>
       </c>
       <c r="O6" t="n">
         <v>107734.0870989619</v>
       </c>
       <c r="P6" t="n">
-        <v>107734.087098962</v>
+        <v>107734.0870989619</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>104.2324944329976</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>60.69401048241616</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>80.24383501326334</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>115.6292313361277</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>343.2560638047704</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>128.1823474152668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>217.7732949413761</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0916977274105</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>43.52153243642189</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>148.7893029263109</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182.408530361388</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31042,7 +31042,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31060,7 +31060,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166594</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
@@ -31130,22 +31130,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
@@ -31212,10 +31212,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31230,13 +31230,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
         <v>0.09187523529024984</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31516,7 +31516,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31534,7 +31534,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31604,22 +31604,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31686,10 +31686,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>687.0167715190033</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067507</v>
@@ -34708,7 +34708,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949726</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330940053</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>298.6359741261577</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961229</v>
+        <v>504.1681401741877</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
@@ -34863,7 +34863,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,7 +34872,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
         <v>54.881755458054</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317919</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35173,7 +35173,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35182,7 +35182,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000386</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>553.5225306839453</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35337,7 +35337,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35346,7 +35346,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>544.4205270745589</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
